--- a/analise_financeiro/Pediatrico/apresentação-Pediatrico.xlsx
+++ b/analise_financeiro/Pediatrico/apresentação-Pediatrico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,25 +510,25 @@
         <v>5330</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5330</v>
+        <v>10660</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -554,17 +554,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -590,25 +590,25 @@
         <v>7698.35</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>15396.7</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -634,17 +634,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -674,17 +674,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -714,17 +714,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -754,17 +754,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -794,17 +794,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -834,17 +834,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -874,17 +874,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -914,17 +914,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -954,17 +954,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -986,17 +986,17 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -1009,10 +1009,10 @@
         <v>300</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="15">
@@ -1026,17 +1026,17 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1066,17 +1066,17 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1110,7 +1110,7 @@
         <v>5330</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1119,16 +1119,16 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5330</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1150,7 +1150,7 @@
         <v>6713.01</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1159,16 +1159,16 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>6713.01</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1199,12 +1199,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1239,12 +1239,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1279,12 +1279,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1319,12 +1319,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1399,12 +1399,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1559,12 +1559,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1591,12 +1591,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -1609,10 +1609,10 @@
         <v>300</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
     </row>
     <row r="30">
@@ -1631,12 +1631,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -1671,12 +1671,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -1710,25 +1710,25 @@
         <v>5330</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>5330</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1754,17 +1754,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -1790,25 +1790,25 @@
         <v>7698.35</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>23095.05</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1834,17 +1834,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -1874,17 +1874,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -1914,17 +1914,17 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -1954,17 +1954,17 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -1994,17 +1994,17 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -2034,17 +2034,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -2074,17 +2074,17 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -2114,17 +2114,17 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -2154,17 +2154,17 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -2186,17 +2186,17 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -2209,10 +2209,10 @@
         <v>300</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L44" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="45">
@@ -2226,17 +2226,17 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -2266,17 +2266,17 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Paracambi</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -2292,1806 +2292,6 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>5330</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Mesquita</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA- PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>6713.01</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Mesquita</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>7698.35</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Mesquita</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>7698.35</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>TRATAMENTO CIRÚRGICO DE PERFURAÇÃO DO SEPTO NASAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>6500</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Mesquita</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>CORREÇÃO CIRÚRGICO DE ESTRABISMO (ACIMA DE 2 MUSCULOS) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>5255.28</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Mesquita</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>5850</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Mesquita</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>5237.06</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Mesquita</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>7157.78</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Mesquita</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>TRATAMENTO CIRÚRGICO DE HIDROCELE - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>3782.7</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Mesquita</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>6608.86</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Mesquita</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>PLASTICA TOTAL DO PENIS - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>6500</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Mesquita</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>4850</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Mesquita</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Mesquita</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>CONSULTA PEDIATRICA OTORRINO</t>
-        </is>
-      </c>
-      <c r="J59" t="n">
-        <v>300</v>
-      </c>
-      <c r="K59" t="n">
-        <v>2</v>
-      </c>
-      <c r="L59" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Mesquita</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>CONSULTA PEDIATRICA CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="J60" t="n">
-        <v>300</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Mesquita</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>CONSULTA PEDIATRICA OFTALMOLOGISTA</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
-        <v>300</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>5330</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Queimados</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>5330</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA- PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>6713.01</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Queimados</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>7698.35</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Queimados</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>15396.7</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>TRATAMENTO CIRÚRGICO DE PERFURAÇÃO DO SEPTO NASAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>6500</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Queimados</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>CORREÇÃO CIRÚRGICO DE ESTRABISMO (ACIMA DE 2 MUSCULOS) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>5255.28</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Queimados</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>5850</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Queimados</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>5237.06</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Queimados</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>7157.78</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Queimados</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>TRATAMENTO CIRÚRGICO DE HIDROCELE - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>3782.7</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Queimados</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>6608.86</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Queimados</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>PLASTICA TOTAL DO PENIS - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>6500</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Queimados</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>4850</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Queimados</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Queimados</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>CONSULTA PEDIATRICA OTORRINO</t>
-        </is>
-      </c>
-      <c r="J74" t="n">
-        <v>300</v>
-      </c>
-      <c r="K74" t="n">
-        <v>3</v>
-      </c>
-      <c r="L74" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Queimados</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>CONSULTA PEDIATRICA CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="J75" t="n">
-        <v>300</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Queimados</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>CONSULTA PEDIATRICA OFTALMOLOGISTA</t>
-        </is>
-      </c>
-      <c r="J76" t="n">
-        <v>300</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>5330</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Seropédica</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA- PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>6713.01</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Seropédica</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>7698.35</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Seropédica</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>7698.35</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>TRATAMENTO CIRÚRGICO DE PERFURAÇÃO DO SEPTO NASAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>6500</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Seropédica</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>CORREÇÃO CIRÚRGICO DE ESTRABISMO (ACIMA DE 2 MUSCULOS) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>5255.28</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Seropédica</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>5850</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Seropédica</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>5237.06</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Seropédica</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>7157.78</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Seropédica</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>TRATAMENTO CIRÚRGICO DE HIDROCELE - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>3782.7</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Seropédica</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>6608.86</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Seropédica</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>PLASTICA TOTAL DO PENIS - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>6500</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Seropédica</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>4850</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Seropédica</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Seropédica</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>CONSULTA PEDIATRICA OTORRINO</t>
-        </is>
-      </c>
-      <c r="J89" t="n">
-        <v>300</v>
-      </c>
-      <c r="K89" t="n">
-        <v>1</v>
-      </c>
-      <c r="L89" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Seropédica</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>CONSULTA PEDIATRICA CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="J90" t="n">
-        <v>300</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Pediatrico</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Seropédica</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>20/11 a 19/12</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>CONSULTA PEDIATRICA OFTALMOLOGISTA</t>
-        </is>
-      </c>
-      <c r="J91" t="n">
-        <v>300</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
         <v>0</v>
       </c>
     </row>
